--- a/test_env/database_creation/rawdata/aircraftproperties/Data Extraction 2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Data Extraction 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\overall\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F4E572-FFAA-4C43-9523-08C0CEB8E134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FD48B5-86A5-4C14-AFAA-1F0A21A4D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{EC9DA6B0-2C5C-4786-A3C0-5C7513901B13}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{EC9DA6B0-2C5C-4786-A3C0-5C7513901B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 2" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
   <si>
     <t>Large Aircraft (triangle)</t>
   </si>
@@ -6806,7 +6806,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6904,9 +6904,6 @@
       <c r="B4" s="1">
         <v>2.5573999999999999</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1">
         <v>1959</v>
       </c>
@@ -6988,6 +6985,7 @@
       <c r="B7" s="1">
         <v>2.3580999999999999</v>
       </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>1965</v>
       </c>
@@ -7803,7 +7801,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9152,7 +9150,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9705,7 +9703,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
